--- a/Machine Learning PQC/Four_Qubit_pytorch/Summary_circuit1.xlsx
+++ b/Machine Learning PQC/Four_Qubit_pytorch/Summary_circuit1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saesun Kim\Documents\GitHub\Quantum_Machine_Learning_Express\Machine Learning PQC\Four_Qubit_pytorch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{933F8E38-052B-458F-AAFE-2AA97A810233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0797D8A7-A6BB-49D9-8F9B-C5B4B1A14C82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34950" yWindow="2325" windowWidth="18330" windowHeight="12420" xr2:uid="{7E4A5748-1B31-41DD-936A-B63677FF5BF3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7E4A5748-1B31-41DD-936A-B63677FF5BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Adam</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Paper</t>
+  </si>
+  <si>
+    <t>Our</t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
 </sst>
 </file>
@@ -111,7 +117,118 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -421,15 +538,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5084DDBE-821D-4C96-9DC0-6B59907753F6}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -474,6 +594,21 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>0.63</v>
+      </c>
+      <c r="G2">
+        <v>0.52</v>
+      </c>
+      <c r="H2">
+        <v>0.67</v>
+      </c>
+      <c r="I2">
+        <v>0.78</v>
+      </c>
+      <c r="J2">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -491,6 +626,21 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>0.63</v>
+      </c>
+      <c r="G3">
+        <v>0.61</v>
+      </c>
+      <c r="H3">
+        <v>0.71</v>
+      </c>
+      <c r="I3">
+        <v>0.8</v>
+      </c>
+      <c r="J3">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -588,7 +738,133 @@
         <v>0.501</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>B2-B6</f>
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:J11" si="0">C2-C6</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-0.13</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-4.7999999999999932E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-7.0999999999999952E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>-6.700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>B3-B7</f>
+        <v>0.19300000000000006</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-0.11099999999999999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.32700000000000007</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-0.10599999999999998</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-4.7000000000000042E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000035E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B10:J11">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>-0.05</formula>
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>